--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arshad\4022\DL\Project\DGE-CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499196B6-4303-41F8-BB8B-B63E924E2145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA7CF9-2494-4AFC-95B3-82D04D5B0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5400" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{14DB0BB5-1D07-4E38-936D-CE75EE595D0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14DB0BB5-1D07-4E38-936D-CE75EE595D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>98</v>
       </c>
       <c r="C4">
-        <v>130047955</v>
+        <v>131165530</v>
       </c>
     </row>
   </sheetData>
